--- a/Data Files/OTM Test Data/OTM Shipment data.xlsx
+++ b/Data Files/OTM Test Data/OTM Shipment data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Shipment IDs</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>TESTSHP177</t>
+  </si>
+  <si>
+    <t>TESTSHP584</t>
   </si>
 </sst>
 </file>
@@ -434,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5914F58-C128-4014-8211-4318376D208D}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -540,6 +543,11 @@
         <v>18</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
